--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s2_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s2_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1589.635913150339</v>
+        <v>1301.470284478263</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.98076507355737</v>
+        <v>36.59143808817635</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.25280849839137</v>
+        <v>12.72978832722616</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.72795657516601</v>
+        <v>11.6086347173128</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1340.120000000007</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,61 +634,6 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.87261643321131</v>
+        <v>17.27021167277385</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677591</v>
+        <v>7.00687454322409</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.99312545677591</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16.16637066025754</v>
+        <v>15.97645744572761</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.12542493160267</v>
+        <v>29.11244731462912</v>
       </c>
     </row>
     <row r="9">
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1143,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1157,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1171,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1185,222 +1130,12 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1503,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0400000000012</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1514,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1525,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000012</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1536,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6100000000012</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1547,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0800000000012</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1558,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4450000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1569,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1580,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1591,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1602,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1613,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1624,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1635,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1646,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1657,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999999997</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1668,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -1679,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -1690,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
@@ -1701,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
@@ -1712,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
@@ -1723,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>151.0650000000013</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1734,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>143.15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1745,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>141.6400000000013</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1756,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>144.1900000000013</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1767,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>145.6100000000013</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1778,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3399999999997</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -1789,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2049999999997</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -1800,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.4299999999997</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -1811,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -1822,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.9949999999997</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -1833,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>192.0400000000012</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1844,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>177.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
@@ -1855,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.1100000000012</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -1866,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>179.6100000000012</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -1877,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>185.0800000000012</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>47.33999999999972</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -1935,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.20499999999973</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -1946,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>40.42999999999972</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1957,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>57.69999999999999</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1968,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>52.99499999999972</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1979,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>92.04000000000116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -1990,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>77.55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -2001,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>78.11000000000115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -2012,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>79.61000000000115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -2023,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>85.08000000000118</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2081,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2092,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2103,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2114,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2125,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2136,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2147,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2158,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2169,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2180,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2191,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2202,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2213,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2224,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2290,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2301,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2312,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2323,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2334,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2348,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2485,7 +2220,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2496,7 +2231,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2507,7 +2242,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2518,7 +2253,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2529,122 +2264,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>
